--- a/KT 계열 보고서.xlsx
+++ b/KT 계열 보고서.xlsx
@@ -387,12 +387,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>imws.omega-bo.co.kr</t>
+          <t>freesam.kt.com</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>175.207.88.65</t>
+          <t>14.32.69.19</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -409,12 +409,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>freesam.kt.com</t>
+          <t>14.63.143.193</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>14.32.69.19</t>
+          <t>14.63.143.193</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -431,12 +431,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>14.63.143.193</t>
+          <t>imas.omega-bo.co.kr</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>14.63.143.193</t>
+          <t>175.207.88.64</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -453,12 +453,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>imas.omega-bo.co.kr</t>
+          <t>imws.omega-bo.co.kr</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>175.207.88.64</t>
+          <t>175.207.88.65</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1195,12 +1195,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>175.207.124.71</t>
+          <t>175.207.124.78</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>175.207.124.71</t>
+          <t>175.207.124.78</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1217,12 +1217,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>175.207.124.75</t>
+          <t>service.game-mode.net</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>175.207.124.75</t>
+          <t>52.193.83.111</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1239,12 +1239,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>175.207.124.74</t>
+          <t>service.game-mode.net</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>175.207.124.74</t>
+          <t>52.197.13.201</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1261,12 +1261,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>freesam.kt.com</t>
+          <t>service.game-mode.net</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>14.32.69.19</t>
+          <t>52.69.185.5</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1283,12 +1283,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>service.game-mode.net</t>
+          <t>175.207.124.74</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>52.69.185.5</t>
+          <t>175.207.124.74</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1305,12 +1305,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>service.game-mode.net</t>
+          <t>175.207.124.71</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>52.197.13.201</t>
+          <t>175.207.124.71</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1327,12 +1327,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>service.game-mode.net</t>
+          <t>freesam.kt.com</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>52.193.83.111</t>
+          <t>14.32.69.19</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1376,7 +1376,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>18.182.156.239</t>
+          <t>52.69.185.5</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1393,12 +1393,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>service.game-mode.net</t>
+          <t>175.207.124.79</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>18.179.87.8</t>
+          <t>175.207.124.79</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1415,12 +1415,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>freesam.kt.com</t>
+          <t>175.207.124.75</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>14.32.69.19</t>
+          <t>175.207.124.75</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1437,12 +1437,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>59.18.30.144</t>
+          <t>service.game-mode.net</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>59.18.30.144</t>
+          <t>18.182.156.239</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1459,12 +1459,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>fgelw.esports.kt.com</t>
+          <t>service.game-mode.net</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>211.252.120.38</t>
+          <t>18.179.87.8</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1481,12 +1481,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>service.game-mode.net</t>
+          <t>freesam.kt.com</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>52.69.185.5</t>
+          <t>14.32.69.19</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1503,12 +1503,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>175.207.124.79</t>
+          <t>59.18.30.144</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>175.207.124.79</t>
+          <t>59.18.30.144</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1525,12 +1525,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>175.207.124.78</t>
+          <t>fgelw.esports.kt.com</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>175.207.124.78</t>
+          <t>211.252.120.38</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1547,12 +1547,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>freesam.kt.com</t>
+          <t>fgelw.esports.kt.com</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>14.32.69.19</t>
+          <t>211.252.120.38</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1591,12 +1591,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>fgelw.esports.kt.com</t>
+          <t>freesam.kt.com</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>211.252.120.38</t>
+          <t>14.32.69.19</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1632,12 +1632,12 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>14.63.159.129</t>
+          <t>14.32.70.2</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>14.63.159.129</t>
+          <t>14.32.70.2</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -1654,12 +1654,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>211.252.121.68</t>
+          <t>narle.io</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>211.252.121.68</t>
+          <t>14.63.159.112</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1676,12 +1676,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>narle.io</t>
+          <t>chat.narle.io</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>14.63.159.112</t>
+          <t>14.63.159.116</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1698,12 +1698,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>tl-in-f188.1e100.net</t>
+          <t>14.63.159.113</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>64.233.189.188</t>
+          <t>14.63.159.113</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1720,12 +1720,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>53.26.241.35.bc.googleusercontent.com</t>
+          <t>211.252.121.68</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>35.241.26.53</t>
+          <t>211.252.121.68</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1742,12 +1742,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>file.narle.io</t>
+          <t>narle.io</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>14.63.159.113</t>
+          <t>14.63.159.112</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1764,12 +1764,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>media1.narle.io</t>
+          <t>tl-in-f188.1e100.net</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>175.196.95.123</t>
+          <t>64.233.189.188</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1786,12 +1786,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>175.196.95.125</t>
+          <t>53.26.241.35.bc.googleusercontent.com</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>175.196.95.125</t>
+          <t>35.241.26.53</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1808,12 +1808,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>chat.narle.io</t>
+          <t>file.narle.io</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>14.63.159.116</t>
+          <t>14.63.159.113</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1830,12 +1830,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>14.63.159.113</t>
+          <t>media1.narle.io</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>14.63.159.113</t>
+          <t>175.196.95.123</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1852,12 +1852,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>narle.io</t>
+          <t>175.196.95.125</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>14.63.159.112</t>
+          <t>175.196.95.125</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1874,12 +1874,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>14.32.70.2</t>
+          <t>14.63.159.129</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>14.32.70.2</t>
+          <t>14.63.159.129</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1896,12 +1896,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>14.32.69.19</t>
+          <t>nrt12s28-in-f10.1e100.net</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>14.32.69.19</t>
+          <t>172.217.174.106</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1918,12 +1918,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>narle.io</t>
+          <t>api2.userhabit.io</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>14.63.159.112</t>
+          <t>52.193.78.93</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1940,12 +1940,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>narle.io</t>
+          <t>ms6hc3m8vc.execute-api.us-west-2.amazonaws.com</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>14.63.159.112</t>
+          <t>54.201.1.129</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1962,12 +1962,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>nrt12s28-in-f10.1e100.net</t>
+          <t>14.32.69.19</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>172.217.174.106</t>
+          <t>14.32.69.19</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1984,12 +1984,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>s3-ap-northeast-1.amazonaws.com</t>
+          <t>narle.io</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>52.219.136.34</t>
+          <t>14.63.159.112</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2028,12 +2028,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>api2.userhabit.io</t>
+          <t>s3-ap-northeast-1.amazonaws.com</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>52.193.78.93</t>
+          <t>52.219.136.34</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2050,12 +2050,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ms6hc3m8vc.execute-api.us-west-2.amazonaws.com</t>
+          <t>narle.io</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>54.201.1.129</t>
+          <t>14.63.159.112</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2072,12 +2072,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>media2.narle.io</t>
+          <t>14.63.159.113</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>175.196.95.124</t>
+          <t>14.63.159.113</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2116,12 +2116,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>14.63.159.113</t>
+          <t>media2.narle.io</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>14.63.159.113</t>
+          <t>175.196.95.124</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -2138,12 +2138,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>narle.io</t>
+          <t>175.196.95.128</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>14.63.159.112</t>
+          <t>175.196.95.128</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -2160,12 +2160,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>14.32.70.2</t>
+          <t>14.63.159.129</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>14.32.70.2</t>
+          <t>14.63.159.129</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -2182,12 +2182,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>175.196.95.128</t>
+          <t>14.32.70.2</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>175.196.95.128</t>
+          <t>14.32.70.2</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -2204,12 +2204,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>14.63.159.129</t>
+          <t>narle.io</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>14.63.159.129</t>
+          <t>14.63.159.112</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -2234,7 +2234,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D189"/>
+  <dimension ref="A1:D154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2245,12 +2245,12 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>log.megatvdnp.co.kr</t>
+          <t>mobile-gtalk.l.google.com</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>175.207.88.160</t>
+          <t>108.177.97.188</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -2267,12 +2267,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>otm-clip.macc.skcdn.com</t>
+          <t>golem.canonical.com</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>222.239.21.163</t>
+          <t>91.189.89.199</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -2311,12 +2311,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>golem.canonical.com</t>
+          <t>otm-clip.macc.skcdn.com</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>91.189.89.199</t>
+          <t>222.239.21.163</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -2355,12 +2355,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>108.177.125.188</t>
+          <t>log.megatvdnp.co.kr</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>108.177.125.188</t>
+          <t>175.207.88.160</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -2377,12 +2377,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>www.google.com</t>
+          <t>108.177.125.188</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>172.217.161.36</t>
+          <t>108.177.125.188</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -2399,12 +2399,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>222.122.121.40</t>
+          <t>www.google.com</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>222.122.121.40</t>
+          <t>172.217.161.36</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -2421,12 +2421,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>mobile-gtalk.l.google.com</t>
+          <t>222.122.121.40</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>108.177.97.188</t>
+          <t>222.122.121.40</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -2597,12 +2597,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>apis.genie.co.kr</t>
+          <t>175.207.88.161</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>119.205.218.101</t>
+          <t>175.207.88.161</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2619,12 +2619,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>f5134000.ff119a720a2a</t>
+          <t>222.122.121.30</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>f5134000.ff119a720a2a</t>
+          <t>222.122.121.30</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2641,12 +2641,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>fe80::95b0:373d:f96b:8ecc</t>
+          <t>edge-star-shv-01-ssn1.facebook.com</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>fe80::95b0:373d:f96b:8ecc</t>
+          <t>157.240.215.16</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2663,12 +2663,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Galaxy-S9.local</t>
+          <t>121.156.46.123</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>08:ae:d6:1d:cf:71</t>
+          <t>121.156.46.123</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2685,12 +2685,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>fe80::102c:9fe:b71d:3125</t>
+          <t>apis.genie.co.kr</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>fe80::102c:9fe:b71d:3125</t>
+          <t>119.205.218.101</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2707,12 +2707,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>play.googleapis.com</t>
+          <t>121.156.46.82</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>172.217.161.42</t>
+          <t>121.156.46.82</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -2751,12 +2751,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>events-endpoint-e-899663497.us-east-1.elb.amazonaws.com</t>
+          <t>play.googleapis.com</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>54.235.247.52</t>
+          <t>172.217.161.42</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -2773,12 +2773,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>121.156.46.57</t>
+          <t>121.156.46.64</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>121.156.46.57</t>
+          <t>121.156.46.64</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -2795,12 +2795,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>121.156.46.100</t>
+          <t>events-endpoint-e-899663497.us-east-1.elb.amazonaws.com</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>121.156.46.100</t>
+          <t>54.235.247.52</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -2817,12 +2817,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>121.156.46.64</t>
+          <t>121.156.46.57</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>121.156.46.64</t>
+          <t>121.156.46.57</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -2839,12 +2839,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>222.122.121.40</t>
+          <t>MyoungehsiPhone</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>222.122.121.40</t>
+          <t>192.168.1.61</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -2861,12 +2861,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>localhost</t>
+          <t>kt</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>127.0.0.53</t>
+          <t>192.168.1.1</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -2883,12 +2883,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ec2-13-124-160-227.ap-northeast-2.compute.amazonaws.com</t>
+          <t>121.156.46.100</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>13.124.160.227</t>
+          <t>121.156.46.100</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -2905,12 +2905,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>222.122.121.88</t>
+          <t>10.42.0.216</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>222.122.121.88</t>
+          <t>10.42.0.216</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2927,12 +2927,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>121.156.46.52</t>
+          <t>222.122.121.40</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>121.156.46.52</t>
+          <t>222.122.121.40</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2949,12 +2949,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>121.156.46.82</t>
+          <t>ec2-13-124-160-227.ap-northeast-2.compute.amazonaws.com</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>121.156.46.82</t>
+          <t>13.124.160.227</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -2971,12 +2971,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>175.207.88.163</t>
+          <t>222.122.121.88</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>175.207.88.163</t>
+          <t>222.122.121.88</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2993,12 +2993,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>175.207.88.161</t>
+          <t>121.156.46.52</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>175.207.88.161</t>
+          <t>121.156.46.52</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -3015,12 +3015,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>222.122.121.30</t>
+          <t>175.207.88.163</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>222.122.121.30</t>
+          <t>175.207.88.163</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -3037,12 +3037,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>edge-star-shv-01-ssn1.facebook.com</t>
+          <t>beacons.gvt2.com</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>157.240.215.16</t>
+          <t>172.217.31.131</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -3052,19 +3052,19 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>영화</t>
+          <t>동영상</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>121.156.46.123</t>
+          <t>log.megatvdnp.co.kr</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>121.156.46.123</t>
+          <t>175.207.88.160</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -3074,19 +3074,19 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>영화</t>
+          <t>동영상</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>sungwonryu1.local</t>
+          <t>reco.megatvdnp.co.kr</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>10.42.0.1</t>
+          <t>175.207.88.161</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -3096,19 +3096,19 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>영화</t>
+          <t>동영상</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>10.42.0.216</t>
+          <t>api.megatvdnp.co.kr</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>10.42.0.216</t>
+          <t>175.207.88.163</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -3118,19 +3118,19 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>영화</t>
+          <t>동영상</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>DESKTOP-18JBMRB</t>
+          <t>omas.megatvdnp.co.kr</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>c8:09:a8:78:34:58</t>
+          <t>175.207.88.32</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -3140,19 +3140,19 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>영화</t>
+          <t>동영상</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>kt</t>
+          <t>omws.megatvdnp.co.kr</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>192.168.1.1</t>
+          <t>175.207.88.34</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -3162,19 +3162,19 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>영화</t>
+          <t>동영상</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>sungwonryu1</t>
+          <t>218.145.38.5</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>90:9f:33:0a:c4:2a</t>
+          <t>218.145.38.5</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -3184,19 +3184,19 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>영화</t>
+          <t>동영상</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>f0b14000.ff119ed40a2a</t>
+          <t>218.145.38.52</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>f0b14000.ff119ed40a2a</t>
+          <t>218.145.38.52</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -3206,19 +3206,19 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>영화</t>
+          <t>동영상</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>04904000.ff118af60a2a</t>
+          <t>amsweb.megatvdnp.co.kr</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>04904000.ff118af60a2a</t>
+          <t>222.122.121.128</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -3228,19 +3228,19 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>영화</t>
+          <t>동영상</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>0e0e4000.ff1181780a2a</t>
+          <t>img.megatvdnp.co.kr</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>0e0e4000.ff1181780a2a</t>
+          <t>222.122.121.30</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -3250,19 +3250,19 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>영화</t>
+          <t>동영상</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>10054000.ff117f810a2a</t>
+          <t>contents.megatvdnp.co.kr</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>10054000.ff117f810a2a</t>
+          <t>222.122.121.40</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -3272,19 +3272,19 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>영화</t>
+          <t>동영상</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>1d4d4000.ff1172390a2a</t>
+          <t>menu.megatvdnp.co.kr</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>1d4d4000.ff1172390a2a</t>
+          <t>222.122.121.70</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -3294,19 +3294,19 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>영화</t>
+          <t>동영상</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>MyoungehsiPhone</t>
+          <t>drmipsusb.megatvdnp.co.kr</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>192.168.1.61</t>
+          <t>222.122.121.88</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -3316,19 +3316,19 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>영화</t>
+          <t>동영상</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>121.156.46.62</t>
+          <t>otm-cjad.lgucdn.com</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>121.156.46.62</t>
+          <t>117.52.180.194</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -3345,12 +3345,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>otm-cjad.lgucdn.com</t>
+          <t>otm-cjmott.lgucdn.com</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>117.52.180.194</t>
+          <t>117.52.8.10</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -3367,12 +3367,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>121.156.46.76</t>
+          <t>otm-cjmott.lgucdn.com</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>121.156.46.76</t>
+          <t>117.52.8.11</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -3389,12 +3389,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>121.156.46.77</t>
+          <t>otm-cjmott.lgucdn.com</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>121.156.46.77</t>
+          <t>117.52.8.2</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -3411,12 +3411,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>121.156.46.78</t>
+          <t>otm-cjmott.lgucdn.com</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>121.156.46.78</t>
+          <t>117.52.8.3</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -3433,12 +3433,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>adverweb.cjenm.com</t>
+          <t>121.156.46.118</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>14.34.8.217</t>
+          <t>121.156.46.118</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -3455,12 +3455,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>beacons.gvt2.com</t>
+          <t>121.156.46.62</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>172.217.31.131</t>
+          <t>121.156.46.62</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3477,12 +3477,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>drmipsusb.megatvdnp.co.kr</t>
+          <t>121.156.46.76</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>222.122.121.88</t>
+          <t>121.156.46.76</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3499,12 +3499,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>menu.megatvdnp.co.kr</t>
+          <t>121.156.46.77</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>222.122.121.70</t>
+          <t>121.156.46.77</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3521,12 +3521,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>contents.megatvdnp.co.kr</t>
+          <t>121.156.46.78</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>222.122.121.40</t>
+          <t>121.156.46.78</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3543,12 +3543,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>img.megatvdnp.co.kr</t>
+          <t>adverweb.cjenm.com</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>222.122.121.30</t>
+          <t>14.34.8.217</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3565,12 +3565,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>amsweb.megatvdnp.co.kr</t>
+          <t>121.156.46.54</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>222.122.121.128</t>
+          <t>121.156.46.54</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3580,19 +3580,19 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>동영상</t>
+          <t>드라마</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>218.145.38.52</t>
+          <t>121.156.46.58</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>218.145.38.52</t>
+          <t>121.156.46.58</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3602,19 +3602,19 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>동영상</t>
+          <t>드라마</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>218.145.38.5</t>
+          <t>121.156.46.101</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>218.145.38.5</t>
+          <t>121.156.46.101</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3624,19 +3624,19 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>동영상</t>
+          <t>드라마</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>121.156.46.118</t>
+          <t>10.42.0.216</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>121.156.46.118</t>
+          <t>10.42.0.216</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3646,19 +3646,19 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>동영상</t>
+          <t>드라마</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>omws.megatvdnp.co.kr</t>
+          <t>kt-tracker-env.ap-northeast-2.elasticbeanstalk.com</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>175.207.88.34</t>
+          <t>13.124.160.227</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3668,19 +3668,19 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>동영상</t>
+          <t>드라마</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>omas.megatvdnp.co.kr</t>
+          <t>222.122.121.30</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>175.207.88.32</t>
+          <t>222.122.121.30</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3690,19 +3690,19 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>동영상</t>
+          <t>드라마</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>api.megatvdnp.co.kr</t>
+          <t>edge-star-shv-01-ssn1.facebook.com</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>175.207.88.163</t>
+          <t>157.240.215.16</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3712,19 +3712,19 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>동영상</t>
+          <t>드라마</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>reco.megatvdnp.co.kr</t>
+          <t>222.122.121.128</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>175.207.88.161</t>
+          <t>222.122.121.128</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3734,19 +3734,19 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>동영상</t>
+          <t>드라마</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>log.megatvdnp.co.kr</t>
+          <t>175.207.88.163</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>175.207.88.160</t>
+          <t>175.207.88.163</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3756,19 +3756,19 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>동영상</t>
+          <t>드라마</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>otm-cjmott.lgucdn.com</t>
+          <t>222.122.121.40</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>117.52.8.3</t>
+          <t>222.122.121.40</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3778,19 +3778,19 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>동영상</t>
+          <t>드라마</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>otm-cjmott.lgucdn.com</t>
+          <t>175.207.88.161</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>117.52.8.2</t>
+          <t>175.207.88.161</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3800,19 +3800,19 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>동영상</t>
+          <t>드라마</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>otm-cjmott.lgucdn.com</t>
+          <t>222.122.121.88</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>117.52.8.11</t>
+          <t>222.122.121.88</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3822,19 +3822,19 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>동영상</t>
+          <t>드라마</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>otm-cjmott.lgucdn.com</t>
+          <t>121.156.46.126</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>117.52.8.10</t>
+          <t>121.156.46.126</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3844,19 +3844,19 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>동영상</t>
+          <t>드라마</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>b8804000.ff11d7050a2a</t>
+          <t>api.snapcraft.io</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>b8804000.ff11d7050a2a</t>
+          <t>91.189.92.41</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3873,12 +3873,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>localhost</t>
+          <t>121.156.46.104</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>127.0.0.53</t>
+          <t>121.156.46.104</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3895,12 +3895,12 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Galaxy-S9.local</t>
+          <t>121.156.46.55</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>08:ae:d6:1d:cf:71</t>
+          <t>121.156.46.55</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3917,12 +3917,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>kt</t>
+          <t>121.156.46.60</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>192.168.1.1</t>
+          <t>121.156.46.60</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3939,12 +3939,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>DESKTOP-18JBMRB</t>
+          <t>events-endpoint-d-1130254936.us-east-1.elb.amazonaws.com</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>c8:09:a8:78:34:58</t>
+          <t>50.17.236.86</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3961,12 +3961,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>a2944000.ff11ecf10a2a</t>
+          <t>geniecache.nb-01.ktics.co.kr</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>a2944000.ff11ecf10a2a</t>
+          <t>183.110.52.225</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3983,12 +3983,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>b46a4000.ff11db1b0a2a</t>
+          <t>121.156.46.51</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>b46a4000.ff11db1b0a2a</t>
+          <t>121.156.46.51</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4005,12 +4005,12 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>sungwonryu1</t>
+          <t>121.156.46.87</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>90:9f:33:0a:c4:2a</t>
+          <t>121.156.46.87</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4027,12 +4027,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>ca4d4000.ff11c5380a2a</t>
+          <t>MyoungehsiPhone</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>ca4d4000.ff11c5380a2a</t>
+          <t>192.168.1.61</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4049,12 +4049,12 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>d7634000.ff11b8220a2a</t>
+          <t>apis.genie.co.kr</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>d7634000.ff11b8220a2a</t>
+          <t>119.205.218.101</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4071,12 +4071,12 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>fe80::102c:9fe:b71d:3125</t>
+          <t>kt</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>fe80::102c:9fe:b71d:3125</t>
+          <t>192.168.1.1</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4093,12 +4093,12 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>MyoungehsiPhone</t>
+          <t>218.145.38.50</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>192.168.1.61</t>
+          <t>218.145.38.50</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4108,19 +4108,19 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>드라마</t>
+          <t>라이브</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>e5be4000.ff11a9c70a2a</t>
+          <t>1.102.112.16</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>e5be4000.ff11a9c70a2a</t>
+          <t>1.102.112.16</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4130,19 +4130,19 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>드라마</t>
+          <t>라이브</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>10.42.0.216</t>
+          <t>1.102.114.28</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>10.42.0.216</t>
+          <t>1.102.114.28</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4152,19 +4152,19 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>드라마</t>
+          <t>라이브</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>sungwonryu1.local</t>
+          <t>218.145.38.45</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>10.42.0.1</t>
+          <t>218.145.38.45</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4174,19 +4174,19 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>드라마</t>
+          <t>라이브</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>kt-tracker-env.ap-northeast-2.elasticbeanstalk.com</t>
+          <t>218.145.38.43</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>13.124.160.227</t>
+          <t>218.145.38.43</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4196,19 +4196,19 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>드라마</t>
+          <t>라이브</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>edge-star-shv-01-ssn1.facebook.com</t>
+          <t>218.145.38.52</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>157.240.215.16</t>
+          <t>218.145.38.52</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4218,19 +4218,19 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>드라마</t>
+          <t>라이브</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>222.122.121.128</t>
+          <t>olive-cjenmlive0.lgucdn.com</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>222.122.121.128</t>
+          <t>117.52.8.8</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4240,19 +4240,19 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>드라마</t>
+          <t>라이브</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>175.207.88.163</t>
+          <t>tvn-cjenmlive0.lgucdn.com</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>175.207.88.163</t>
+          <t>117.52.8.4</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4262,19 +4262,19 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>드라마</t>
+          <t>라이브</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>222.122.121.40</t>
+          <t>otvn-cjenmlive0.lgucdn.com</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>222.122.121.40</t>
+          <t>117.52.180.231</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4284,19 +4284,19 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>드라마</t>
+          <t>라이브</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>175.207.88.161</t>
+          <t>218.145.38.51</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>175.207.88.161</t>
+          <t>218.145.38.51</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4306,19 +4306,19 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>드라마</t>
+          <t>라이브</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>222.122.121.88</t>
+          <t>xtvn-cjenmlive0.lgucdn.com</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>222.122.121.88</t>
+          <t>117.52.8.205</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4328,19 +4328,19 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>드라마</t>
+          <t>라이브</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>121.156.46.101</t>
+          <t>121.156.46.79</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>121.156.46.101</t>
+          <t>121.156.46.79</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4350,19 +4350,19 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>드라마</t>
+          <t>라이브</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>222.122.121.30</t>
+          <t>onstyle-cjenmlive0.lgucdn.com</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>222.122.121.30</t>
+          <t>117.52.8.5</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4372,19 +4372,19 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>드라마</t>
+          <t>라이브</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>apis.genie.co.kr</t>
+          <t>121.156.46.78</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>119.205.218.101</t>
+          <t>121.156.46.78</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -4394,19 +4394,19 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>드라마</t>
+          <t>라이브</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>121.156.46.54</t>
+          <t>121.156.46.76</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>121.156.46.54</t>
+          <t>121.156.46.76</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -4416,19 +4416,19 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>드라마</t>
+          <t>라이브</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>121.156.46.58</t>
+          <t>121.156.46.77</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>121.156.46.58</t>
+          <t>121.156.46.77</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -4438,19 +4438,19 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>드라마</t>
+          <t>라이브</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>121.156.46.126</t>
+          <t>121.156.46.75</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>121.156.46.126</t>
+          <t>121.156.46.75</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -4460,19 +4460,19 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>드라마</t>
+          <t>라이브</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>api.snapcraft.io</t>
+          <t>218.145.38.42</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>91.189.92.41</t>
+          <t>218.145.38.42</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -4482,19 +4482,19 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>드라마</t>
+          <t>라이브</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>121.156.46.104</t>
+          <t>kocn-cjlivedrm.lgucdn.com</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>121.156.46.104</t>
+          <t>117.52.180.226</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -4504,19 +4504,19 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>드라마</t>
+          <t>라이브</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>121.156.46.55</t>
+          <t>star.c10r.facebook.com</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>121.156.46.55</t>
+          <t>157.240.215.16</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -4526,19 +4526,19 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>드라마</t>
+          <t>라이브</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>121.156.46.60</t>
+          <t>events-endpoint-d-1130254936.us-east-1.elb.amazonaws.com</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>121.156.46.60</t>
+          <t>23.21.109.217</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -4548,19 +4548,19 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>드라마</t>
+          <t>라이브</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>events-endpoint-d-1130254936.us-east-1.elb.amazonaws.com</t>
+          <t>pool.ntp.org</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>50.17.236.86</t>
+          <t>106.247.248.106</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -4570,19 +4570,19 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>드라마</t>
+          <t>라이브</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>geniecache.nb-01.ktics.co.kr</t>
+          <t>log.tving.com</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>183.110.52.225</t>
+          <t>14.34.8.208</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -4592,19 +4592,19 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>드라마</t>
+          <t>라이브</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>121.156.46.51</t>
+          <t>ec2-13-124-47-213.ap-northeast-2.compute.amazonaws.com</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>121.156.46.51</t>
+          <t>13.124.47.213</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -4614,19 +4614,19 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>드라마</t>
+          <t>라이브</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>121.156.46.87</t>
+          <t>otm.drmkeyserver.com</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>121.156.46.87</t>
+          <t>52.78.139.16</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -4636,19 +4636,19 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>드라마</t>
+          <t>라이브</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>89644000.ff1106220a2a</t>
+          <t>contents.megatvdnp.co.kr</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>89644000.ff1106220a2a</t>
+          <t>222.122.121.40</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -4665,12 +4665,12 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>218.145.38.18</t>
+          <t>218.145.38.22</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>218.145.38.18</t>
+          <t>218.145.38.22</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -4687,12 +4687,12 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>218.145.38.22</t>
+          <t>218.145.38.18</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>218.145.38.22</t>
+          <t>218.145.38.18</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -4709,12 +4709,12 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>contents.megatvdnp.co.kr</t>
+          <t>108.177.125.188</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>222.122.121.40</t>
+          <t>108.177.125.188</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -4731,12 +4731,12 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>otm.drmkeyserver.com</t>
+          <t>kocn-cjlivedrm.lgucdn.com</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>52.78.139.16</t>
+          <t>117.52.180.195</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -4753,12 +4753,12 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>zhtv-cjenmlive0.lgucdn.com</t>
+          <t>ogn-cjenmlive0.lgucdn.com</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>117.52.180.231</t>
+          <t>117.52.180.227</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -4775,12 +4775,12 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>ogn-cjenmlive0.lgucdn.com</t>
+          <t>nrt20s17-in-f10.1e100.net</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>117.52.180.227</t>
+          <t>216.58.220.138</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -4797,12 +4797,12 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>kocn-cjlivedrm.lgucdn.com</t>
+          <t>zhtv-cjenmlive0.lgucdn.com</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>117.52.180.195</t>
+          <t>117.52.180.231</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -4819,12 +4819,12 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>108.177.125.188</t>
+          <t>xtvn-cjenmlive0.lgucdn.com</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>108.177.125.188</t>
+          <t>117.52.241.21</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -4841,12 +4841,12 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>kt</t>
+          <t>diatv-cjenmlive0.lgucdn.com</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>192.168.1.1</t>
+          <t>117.52.8.205</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -4863,12 +4863,12 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>62e14000.ff112ca50a2a</t>
+          <t>kocn-cjlivedrm.lgucdn.com</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>62e14000.ff112ca50a2a</t>
+          <t>117.52.8.227</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -4885,12 +4885,12 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>sungwonryu1</t>
+          <t>log.tving.com</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>90:9f:33:0a:c4:2a</t>
+          <t>14.34.8.208</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -4907,12 +4907,12 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>DESKTOP-18JBMRB</t>
+          <t>kt</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>c8:09:a8:78:34:58</t>
+          <t>192.168.1.1</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -4929,12 +4929,12 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>nrt20s17-in-f10.1e100.net</t>
+          <t>10.42.0.216</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>216.58.220.138</t>
+          <t>10.42.0.216</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -4951,12 +4951,12 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Galaxy-S9.local</t>
+          <t>175.207.88.163</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>08:ae:d6:1d:cf:71</t>
+          <t>175.207.88.163</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -4973,12 +4973,12 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>6f974000.ff111fef0a2a</t>
+          <t>1.102.114.30</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>6f974000.ff111fef0a2a</t>
+          <t>1.102.114.30</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -4995,12 +4995,12 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>79074000.ff11167f0a2a</t>
+          <t>222.122.121.30</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>79074000.ff11167f0a2a</t>
+          <t>222.122.121.30</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -5017,12 +5017,12 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>8ad24000.ff1104b40a2a</t>
+          <t>e1534.dscb.akamaiedge.net</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>8ad24000.ff1104b40a2a</t>
+          <t>184.25.22.126</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -5039,12 +5039,12 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>log.tving.com</t>
+          <t>events-endpoint-c-394794954.us-east-1.elb.amazonaws.com</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>14.34.8.208</t>
+          <t>50.19.87.146</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -5061,12 +5061,12 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>10.42.0.216</t>
+          <t>222.122.121.128</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>10.42.0.216</t>
+          <t>222.122.121.128</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -5083,12 +5083,12 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>175.207.88.163</t>
+          <t>222.122.121.70</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>175.207.88.163</t>
+          <t>222.122.121.70</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -5105,12 +5105,12 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>1.102.114.30</t>
+          <t>218.145.38.5</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>1.102.114.30</t>
+          <t>218.145.38.5</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -5127,12 +5127,12 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>localhost</t>
+          <t>ec2-54-243-123-1.compute-1.amazonaws.com</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>127.0.0.53</t>
+          <t>54.243.123.1</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -5142,19 +5142,19 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>라이브</t>
+          <t>앱시작</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>sungwonryu1.local</t>
+          <t>222.122.121.30</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>10.42.0.1</t>
+          <t>222.122.121.30</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -5164,19 +5164,19 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>라이브</t>
+          <t>앱시작</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>222.122.121.30</t>
+          <t>175.207.88.161</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>222.122.121.30</t>
+          <t>175.207.88.161</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -5186,19 +5186,19 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>라이브</t>
+          <t>앱시작</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>e1534.dscb.akamaiedge.net</t>
+          <t>222.122.121.70</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>184.25.22.126</t>
+          <t>222.122.121.70</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -5208,19 +5208,19 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>라이브</t>
+          <t>앱시작</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>events-endpoint-c-394794954.us-east-1.elb.amazonaws.com</t>
+          <t>14.32.69.19</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>50.19.87.146</t>
+          <t>14.32.69.19</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -5230,19 +5230,19 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>라이브</t>
+          <t>앱시작</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>222.122.121.128</t>
+          <t>222.122.121.88</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>222.122.121.128</t>
+          <t>222.122.121.88</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -5252,19 +5252,19 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>라이브</t>
+          <t>앱시작</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>222.122.121.70</t>
+          <t>175.207.88.163</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>222.122.121.70</t>
+          <t>175.207.88.163</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -5274,19 +5274,19 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>라이브</t>
+          <t>앱시작</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>218.145.38.5</t>
+          <t>222.122.121.128</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>218.145.38.5</t>
+          <t>222.122.121.128</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -5296,19 +5296,19 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>라이브</t>
+          <t>앱시작</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>218.145.38.50</t>
+          <t>send.mx.cdnetworks.com</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>218.145.38.50</t>
+          <t>211.233.40.78</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -5318,19 +5318,19 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>라이브</t>
+          <t>앱시작</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>1.102.112.16</t>
+          <t>edge-star-shv-01-ssn1.facebook.com</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>1.102.112.16</t>
+          <t>157.240.215.16</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -5340,19 +5340,19 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>라이브</t>
+          <t>앱시작</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>1.102.114.28</t>
+          <t>omas.megatvdnp.co.kr</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>1.102.114.28</t>
+          <t>175.207.88.32</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -5362,19 +5362,19 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>라이브</t>
+          <t>앱시작</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>218.145.38.45</t>
+          <t>omws.megatvdnp.co.kr</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>218.145.38.45</t>
+          <t>175.207.88.34</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -5384,19 +5384,19 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>라이브</t>
+          <t>앱시작</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>218.145.38.43</t>
+          <t>contents.megatvdnp.co.kr</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>218.145.38.43</t>
+          <t>222.122.121.40</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -5406,19 +5406,19 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>라이브</t>
+          <t>앱시작</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>218.145.38.52</t>
+          <t>events-endpoint-c-394794954.us-east-1.elb.amazonaws.com</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>218.145.38.52</t>
+          <t>54.243.81.127</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -5428,19 +5428,19 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>라이브</t>
+          <t>해외드라마</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>olive-cjenmlive0.lgucdn.com</t>
+          <t>222.122.121.40</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>117.52.8.8</t>
+          <t>222.122.121.40</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -5450,19 +5450,19 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>라이브</t>
+          <t>해외드라마</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>tvn-cjenmlive0.lgucdn.com</t>
+          <t>kt-tracker-env.ap-northeast-2.elasticbeanstalk.com</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>117.52.8.4</t>
+          <t>13.124.160.227</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -5472,19 +5472,19 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>라이브</t>
+          <t>해외드라마</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>otvn-cjenmlive0.lgucdn.com</t>
+          <t>222.122.121.30</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>117.52.180.231</t>
+          <t>222.122.121.30</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -5494,19 +5494,19 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>라이브</t>
+          <t>해외드라마</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>218.145.38.51</t>
+          <t>175.207.88.163</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>218.145.38.51</t>
+          <t>175.207.88.163</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -5516,19 +5516,19 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>라이브</t>
+          <t>해외드라마</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>xtvn-cjenmlive0.lgucdn.com</t>
+          <t>175.207.88.161</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>117.52.8.205</t>
+          <t>175.207.88.161</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -5538,19 +5538,19 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>라이브</t>
+          <t>해외드라마</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>121.156.46.79</t>
+          <t>222.122.121.88</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>121.156.46.79</t>
+          <t>222.122.121.88</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -5560,19 +5560,19 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>라이브</t>
+          <t>해외드라마</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>onstyle-cjenmlive0.lgucdn.com</t>
+          <t>android.googleapis.com</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>117.52.8.5</t>
+          <t>216.58.220.138</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -5582,19 +5582,19 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>라이브</t>
+          <t>해외드라마</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>121.156.46.78</t>
+          <t>121.156.46.124</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>121.156.46.78</t>
+          <t>121.156.46.124</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -5604,19 +5604,19 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>라이브</t>
+          <t>해외드라마</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>121.156.46.76</t>
+          <t>ec2-3-113-82-252.ap-northeast-1.compute.amazonaws.com</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>121.156.46.76</t>
+          <t>3.113.82.252</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -5625,776 +5625,6 @@
         </is>
       </c>
       <c r="D154" t="inlineStr">
-        <is>
-          <t>라이브</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>121.156.46.77</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>121.156.46.77</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>시즌</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>라이브</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>ec2-13-124-47-213.ap-northeast-2.compute.amazonaws.com</t>
-        </is>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>13.124.47.213</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>시즌</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>라이브</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>121.156.46.75</t>
-        </is>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>121.156.46.75</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>시즌</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>라이브</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>218.145.38.42</t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>218.145.38.42</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>시즌</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>라이브</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>kocn-cjlivedrm.lgucdn.com</t>
-        </is>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>117.52.180.226</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>시즌</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>라이브</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>star.c10r.facebook.com</t>
-        </is>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>157.240.215.16</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>시즌</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>라이브</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>events-endpoint-d-1130254936.us-east-1.elb.amazonaws.com</t>
-        </is>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>23.21.109.217</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>시즌</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>라이브</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>pool.ntp.org</t>
-        </is>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>106.247.248.106</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>시즌</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>라이브</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>log.tving.com</t>
-        </is>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>14.34.8.208</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>시즌</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>라이브</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>kocn-cjlivedrm.lgucdn.com</t>
-        </is>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>117.52.8.227</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>시즌</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>라이브</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>diatv-cjenmlive0.lgucdn.com</t>
-        </is>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>117.52.8.205</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>시즌</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>라이브</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>xtvn-cjenmlive0.lgucdn.com</t>
-        </is>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>117.52.241.21</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>시즌</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>라이브</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>omas.megatvdnp.co.kr</t>
-        </is>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>175.207.88.32</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>시즌</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>앱시작</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>omws.megatvdnp.co.kr</t>
-        </is>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>175.207.88.34</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>시즌</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>앱시작</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>contents.megatvdnp.co.kr</t>
-        </is>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>222.122.121.40</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>시즌</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>앱시작</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>14.32.69.19</t>
-        </is>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>14.32.69.19</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>시즌</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>앱시작</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>222.122.121.70</t>
-        </is>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>222.122.121.70</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>시즌</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>앱시작</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>175.207.88.161</t>
-        </is>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>175.207.88.161</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>시즌</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>앱시작</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>222.122.121.30</t>
-        </is>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>222.122.121.30</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>시즌</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>앱시작</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>ec2-54-243-123-1.compute-1.amazonaws.com</t>
-        </is>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>54.243.123.1</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>시즌</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>앱시작</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>edge-star-shv-01-ssn1.facebook.com</t>
-        </is>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>157.240.215.16</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>시즌</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>앱시작</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>send.mx.cdnetworks.com</t>
-        </is>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>211.233.40.78</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>시즌</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>앱시작</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>222.122.121.128</t>
-        </is>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>222.122.121.128</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>시즌</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>앱시작</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>175.207.88.163</t>
-        </is>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>175.207.88.163</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>시즌</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>앱시작</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>222.122.121.88</t>
-        </is>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>222.122.121.88</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>시즌</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>앱시작</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>222.122.121.40</t>
-        </is>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>222.122.121.40</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>시즌</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>해외드라마</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>222.122.121.30</t>
-        </is>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>222.122.121.30</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>시즌</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>해외드라마</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>events-endpoint-c-394794954.us-east-1.elb.amazonaws.com</t>
-        </is>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>54.243.81.127</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>시즌</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>해외드라마</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>175.207.88.163</t>
-        </is>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>175.207.88.163</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>시즌</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>해외드라마</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>175.207.88.161</t>
-        </is>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>175.207.88.161</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>시즌</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>해외드라마</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>222.122.121.88</t>
-        </is>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>222.122.121.88</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>시즌</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>해외드라마</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>android.googleapis.com</t>
-        </is>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>216.58.220.138</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>시즌</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>해외드라마</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>121.156.46.124</t>
-        </is>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>121.156.46.124</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>시즌</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>해외드라마</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>ec2-3-113-82-252.ap-northeast-1.compute.amazonaws.com</t>
-        </is>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>3.113.82.252</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>시즌</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>해외드라마</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>kt-tracker-env.ap-northeast-2.elasticbeanstalk.com</t>
-        </is>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>13.124.160.227</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>시즌</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr">
         <is>
           <t>해외드라마</t>
         </is>
@@ -6444,12 +5674,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>rawgit.rawgh.netdna-cdn.com</t>
+          <t>ec2-54-235-141-116.compute-1.amazonaws.com</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>151.139.237.11</t>
+          <t>54.235.141.116</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -6466,12 +5696,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>app.clipwallet.co.kr</t>
+          <t>nrt12s02-in-f163.1e100.net</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>175.196.94.7</t>
+          <t>216.58.197.163</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -6488,12 +5718,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>track-nswitch.nasmob.com</t>
+          <t>mony.clipwallet.co.kr</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>183.110.238.171</t>
+          <t>14.32.69.60</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -6510,12 +5740,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>screen.buzzvil.com</t>
+          <t>nrt13s50-in-f10.1e100.net</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>52.193.151.120</t>
+          <t>172.217.25.74</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -6532,12 +5762,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>kt.img.gamen.com.wtxcdn.com</t>
+          <t>nrt20s01-in-f10.1e100.net</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>14.0.113.205</t>
+          <t>172.217.24.138</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -6554,12 +5784,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>mony.clipwallet.co.kr</t>
+          <t>nrt12s01-in-f3.1e100.net</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>14.32.69.60</t>
+          <t>216.58.197.131</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -6576,12 +5806,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>nrt12s02-in-f163.1e100.net</t>
+          <t>freesam.kt.com</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>216.58.197.163</t>
+          <t>14.32.69.19</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -6598,12 +5828,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ec2-54-235-141-116.compute-1.amazonaws.com</t>
+          <t>kt.img.gamen.com.wtxcdn.com</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>54.235.141.116</t>
+          <t>14.0.113.205</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -6620,12 +5850,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ec2-54-225-181-244.compute-1.amazonaws.com</t>
+          <t>kt.img.gamen.com.wtxcdn.com</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>54.225.181.244</t>
+          <t>119.206.200.183</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -6642,12 +5872,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ec2-13-231-94-35.ap-northeast-1.compute.amazonaws.com</t>
+          <t>screen.buzzvil.com</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>13.231.94.35</t>
+          <t>52.193.151.120</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -6664,12 +5894,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>kt.gamen.com</t>
+          <t>track-nswitch.nasmob.com</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>121.156.126.32</t>
+          <t>183.110.238.171</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -6686,12 +5916,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>kt.img.gamen.com.wtxcdn.com</t>
+          <t>app.clipwallet.co.kr</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>119.206.200.183</t>
+          <t>175.196.94.7</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -6708,12 +5938,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>nrt13s50-in-f10.1e100.net</t>
+          <t>rawgit.rawgh.netdna-cdn.com</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>172.217.25.74</t>
+          <t>151.139.237.11</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -6730,12 +5960,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>nrt20s01-in-f10.1e100.net</t>
+          <t>logs.clipwallet.co.kr</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>172.217.24.138</t>
+          <t>14.32.69.7</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -6752,12 +5982,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>nrt12s01-in-f3.1e100.net</t>
+          <t>kt.gamen.com</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>216.58.197.131</t>
+          <t>121.156.126.32</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -6774,12 +6004,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>freesam.kt.com</t>
+          <t>ec2-13-231-94-35.ap-northeast-1.compute.amazonaws.com</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>14.32.69.19</t>
+          <t>13.231.94.35</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -6796,12 +6026,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>logs.clipwallet.co.kr</t>
+          <t>ec2-54-225-181-244.compute-1.amazonaws.com</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>14.32.69.7</t>
+          <t>54.225.181.244</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -6840,12 +6070,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>freesam.kt.com</t>
+          <t>login.kt.com</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>14.32.69.19</t>
+          <t>175.196.94.13</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -6862,12 +6092,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>mony.clipwallet.co.kr</t>
+          <t>17.248.161.165</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>14.32.69.60</t>
+          <t>17.248.161.165</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -6884,12 +6114,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>logs.clipwallet.co.kr</t>
+          <t>m.kt.com</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>14.32.69.7</t>
+          <t>14.63.149.226</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -6906,12 +6136,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>m.kt.com</t>
+          <t>logs.clipwallet.co.kr</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>14.63.149.226</t>
+          <t>14.32.69.7</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -6928,12 +6158,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>17.248.161.165</t>
+          <t>mony.clipwallet.co.kr</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>17.248.161.165</t>
+          <t>14.32.69.60</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -6950,12 +6180,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>login.kt.com</t>
+          <t>freesam.kt.com</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>175.196.94.13</t>
+          <t>14.32.69.19</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -6972,12 +6202,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>210.219.173.121</t>
+          <t>directauto.samsungcard.com</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>210.219.173.121</t>
+          <t>112.106.2.162</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -6994,12 +6224,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>directauto.samsungcard.com</t>
+          <t>210.219.173.121</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>112.106.2.162</t>
+          <t>210.219.173.121</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -7038,12 +6268,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>175.196.94.7</t>
+          <t>175.196.94.11</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>175.196.94.7</t>
+          <t>175.196.94.11</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -7060,12 +6290,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>175.196.94.11</t>
+          <t>175.196.94.7</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>175.196.94.11</t>
+          <t>175.196.94.7</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -7082,12 +6312,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>nrt13s50-in-f10.1e100.net</t>
+          <t>ec2-54-235-242-147.compute-1.amazonaws.com</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>172.217.25.74</t>
+          <t>54.235.242.147</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -7104,12 +6334,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>syd09s01-in-f131.1e100.net</t>
+          <t>nrt13s50-in-f10.1e100.net</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>216.58.220.131</t>
+          <t>172.217.25.74</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -7126,12 +6356,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ec2-54-235-242-147.compute-1.amazonaws.com</t>
+          <t>119.206.200.182</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>54.235.242.147</t>
+          <t>119.206.200.182</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -7148,12 +6378,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>119.206.200.182</t>
+          <t>syd09s01-in-f131.1e100.net</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>119.206.200.182</t>
+          <t>216.58.220.131</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -7170,12 +6400,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>119.206.200.186</t>
+          <t>app.clipwallet.co.kr</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>119.206.200.186</t>
+          <t>175.196.94.7</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -7192,12 +6422,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>app.clipwallet.co.kr</t>
+          <t>logs.clipwallet.co.kr</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>175.196.94.7</t>
+          <t>14.32.69.7</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -7214,12 +6444,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>nrt12s01-in-f131.1e100.net</t>
+          <t>freesam.kt.com</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>216.58.197.131</t>
+          <t>14.32.69.19</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -7236,12 +6466,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>nrt13s50-in-f10.1e100.net</t>
+          <t>nrt12s01-in-f131.1e100.net</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>172.217.25.74</t>
+          <t>216.58.197.131</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -7258,12 +6488,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>nrt20s01-in-f10.1e100.net</t>
+          <t>nrt13s50-in-f10.1e100.net</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>172.217.24.138</t>
+          <t>172.217.25.74</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -7280,12 +6510,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>14.32.69.6</t>
+          <t>nrt20s01-in-f10.1e100.net</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>14.32.69.6</t>
+          <t>172.217.24.138</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -7302,12 +6532,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>121.156.126.32</t>
+          <t>119.206.200.186</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>121.156.126.32</t>
+          <t>119.206.200.186</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -7324,12 +6554,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>192.48.236.12</t>
+          <t>14.32.69.6</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>192.48.236.12</t>
+          <t>14.32.69.6</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -7346,12 +6576,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>116.67.103.180</t>
+          <t>121.156.126.32</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>116.67.103.180</t>
+          <t>121.156.126.32</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -7368,12 +6598,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>116.67.103.183</t>
+          <t>192.48.236.12</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>116.67.103.183</t>
+          <t>192.48.236.12</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -7390,12 +6620,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>rawgit.rawgh.netdna-cdn.com</t>
+          <t>116.67.103.180</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>151.139.237.11</t>
+          <t>116.67.103.180</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -7412,12 +6642,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>logs.clipwallet.co.kr</t>
+          <t>116.67.103.183</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>14.32.69.7</t>
+          <t>116.67.103.183</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -7434,12 +6664,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>freesam.kt.com</t>
+          <t>rawgit.rawgh.netdna-cdn.com</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>14.32.69.19</t>
+          <t>151.139.237.11</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -7456,12 +6686,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>119.207.64.26</t>
+          <t>logs.clipwallet.co.kr</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>119.207.64.26</t>
+          <t>14.32.69.7</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -7478,12 +6708,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>175.196.94.11</t>
+          <t>14.0.115.222</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>175.196.94.11</t>
+          <t>14.0.115.222</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -7500,12 +6730,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>app.clipwallet.co.kr</t>
+          <t>mony.clipwallet.co.kr</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>175.196.94.7</t>
+          <t>14.32.69.60</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -7522,12 +6752,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>logs.clipwallet.co.kr</t>
+          <t>freesam.kt.com</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>14.32.69.7</t>
+          <t>14.32.69.19</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -7544,12 +6774,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>mony.clipwallet.co.kr</t>
+          <t>app.clipwallet.co.kr</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>14.32.69.60</t>
+          <t>175.196.94.7</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -7566,12 +6796,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>freesam.kt.com</t>
+          <t>175.196.94.11</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>14.32.69.19</t>
+          <t>175.196.94.11</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -7588,12 +6818,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>14.0.115.222</t>
+          <t>119.207.64.26</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>14.0.115.222</t>
+          <t>119.207.64.26</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -7632,12 +6862,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>app.clipwallet.co.kr</t>
+          <t>210.219.173.121</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>175.196.94.7</t>
+          <t>210.219.173.121</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -7654,12 +6884,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>freesam.kt.com</t>
+          <t>app.clipwallet.co.kr</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>14.32.69.19</t>
+          <t>175.196.94.7</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -7676,12 +6906,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>210.219.173.121</t>
+          <t>freesam.kt.com</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>210.219.173.121</t>
+          <t>14.32.69.19</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -7698,12 +6928,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>rawgit.rawgh.netdna-cdn.com</t>
+          <t>app.clipwallet.co.kr</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>151.139.237.11</t>
+          <t>175.196.94.7</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -7720,12 +6950,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>app.clipwallet.co.kr</t>
+          <t>ad.buzzvil.com</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>175.196.94.7</t>
+          <t>54.65.243.255</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -7742,12 +6972,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>img.clipwallet.co.kr</t>
+          <t>kt.img.gamen.com.wtxcdn.com</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>14.32.69.6</t>
+          <t>14.0.113.205</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -7764,12 +6994,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>screen.buzzvil.com</t>
+          <t>img.clipwallet.co.kr</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>52.199.104.101</t>
+          <t>14.32.69.6</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -7786,12 +7016,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>kt.img.gamen.com.wtxcdn.com</t>
+          <t>logs.clipwallet.co.kr</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>14.0.113.205</t>
+          <t>14.32.69.7</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -7808,12 +7038,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>logs.clipwallet.co.kr</t>
+          <t>leaflet.clipwallet.co.kr</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>14.32.69.7</t>
+          <t>14.32.69.8</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -7830,12 +7060,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>ad.buzzvil.com</t>
+          <t>rawgit.rawgh.netdna-cdn.com</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>54.65.243.255</t>
+          <t>151.139.237.11</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -7852,12 +7082,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>leaflet.clipwallet.co.kr</t>
+          <t>screen.buzzvil.com</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>14.32.69.8</t>
+          <t>52.199.104.101</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -7893,12 +7123,12 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>www.googleapis.com</t>
+          <t>fs.bizspring.net</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>172.217.175.42</t>
+          <t>180.182.57.95</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -8003,12 +7233,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>fs.bizspring.net</t>
+          <t>112.175.156.40</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>180.182.57.95</t>
+          <t>112.175.156.40</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -8025,12 +7255,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>112.175.156.40</t>
+          <t>slb-584754.ncloudslb.com</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>112.175.156.40</t>
+          <t>220.230.127.199</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -8047,12 +7277,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>slb-584754.ncloudslb.com</t>
+          <t>idm.skplanet.com</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>220.230.127.199</t>
+          <t>1.234.81.14</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -8069,12 +7299,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>idm.skplanet.com</t>
+          <t>slb-851753.ncloudslb.com</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1.234.81.14</t>
+          <t>210.89.187.55</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -8091,12 +7321,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>slb-851753.ncloudslb.com</t>
+          <t>adlc-exchange.toast.com</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>210.89.187.55</t>
+          <t>43.227.116.78</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -8113,12 +7343,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>adlc-exchange.toast.com</t>
+          <t>slb-705258.ncloudslb.com</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>43.227.116.78</t>
+          <t>220.230.126.45</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -8135,12 +7365,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>slb-705258.ncloudslb.com</t>
+          <t>extcm.c.appier.net</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>220.230.126.45</t>
+          <t>139.162.61.54</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -8157,12 +7387,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>extcm.c.appier.net</t>
+          <t>youtube-ui.l.google.com</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>139.162.61.54</t>
+          <t>172.217.174.110</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -8179,12 +7409,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>youtube-ui.l.google.com</t>
+          <t>scontent.xx.fbcdn.net</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>172.217.174.110</t>
+          <t>157.240.215.14</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -8201,12 +7431,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>scontent.xx.fbcdn.net</t>
+          <t>tg-in-f188.1e100.net</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>157.240.215.14</t>
+          <t>74.125.23.188</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -8223,12 +7453,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>tg-in-f188.1e100.net</t>
+          <t>pagead46.l.doubleclick.net</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>74.125.23.188</t>
+          <t>172.217.25.194</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -8245,12 +7475,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>pagead46.l.doubleclick.net</t>
+          <t>static-doubleclick-net.l.google.com</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>172.217.25.194</t>
+          <t>216.58.220.134</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -8267,12 +7497,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>static-doubleclick-net.l.google.com</t>
+          <t>www.googleapis.com</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>216.58.220.134</t>
+          <t>172.217.175.42</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -8355,12 +7585,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>events-endpoint-j-660082941.us-east-1.elb.amazonaws.com</t>
+          <t>ec2-52-40-102-135.us-west-2.compute.amazonaws.com</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>184.72.248.73</t>
+          <t>52.40.102.135</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -8377,12 +7607,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ec2-52-40-102-135.us-west-2.compute.amazonaws.com</t>
+          <t>freesam.kt.com</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>52.40.102.135</t>
+          <t>14.32.69.19</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -8399,12 +7629,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>app.genie.co.kr</t>
+          <t>app-measurement.com</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>112.175.156.40</t>
+          <t>216.58.197.174</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -8421,12 +7651,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>star.c10r.facebook.com</t>
+          <t>events-endpoint-j-660082941.us-east-1.elb.amazonaws.com</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>157.240.215.16</t>
+          <t>184.72.248.73</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -8443,12 +7673,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>weather.genie.co.kr</t>
+          <t>connectivitycheck.gstatic.com</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>119.205.218.215</t>
+          <t>172.217.161.35</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -8465,12 +7695,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>freesam.kt.com</t>
+          <t>firebaseremoteconfig.googleapis.com</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>14.32.69.19</t>
+          <t>172.217.27.74</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -8487,12 +7717,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>android.l.google.com</t>
+          <t>crashlytics.l.google.com</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>172.217.26.46</t>
+          <t>172.217.175.67</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -8509,12 +7739,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>crashlytics.l.google.com</t>
+          <t>android.l.google.com</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>172.217.175.67</t>
+          <t>172.217.26.46</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -8531,12 +7761,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>app-measurement.com</t>
+          <t>app.genie.co.kr</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>216.58.197.174</t>
+          <t>112.175.156.40</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -8553,12 +7783,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>firebaseremoteconfig.googleapis.com</t>
+          <t>star.c10r.facebook.com</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>172.217.27.74</t>
+          <t>157.240.215.16</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -8575,12 +7805,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>connectivitycheck.gstatic.com</t>
+          <t>d1iskralo6mo11.cloudfront.net</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>172.217.161.35</t>
+          <t>13.227.74.86</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -8619,12 +7849,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>d1iskralo6mo11.cloudfront.net</t>
+          <t>weather.genie.co.kr</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>13.227.74.86</t>
+          <t>119.205.218.215</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -8641,12 +7871,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>stm.genie.co.kr</t>
+          <t>ec2-3-113-82-90.ap-northeast-1.compute.amazonaws.com</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>119.205.218.138</t>
+          <t>3.113.82.90</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -8663,12 +7893,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>183.110.52.97</t>
+          <t>events-endpoint-j-660082941.us-east-1.elb.amazonaws.com</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>183.110.52.97</t>
+          <t>50.17.239.114</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -8685,12 +7915,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>222.122.69.54</t>
+          <t>112.175.156.18</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>222.122.69.54</t>
+          <t>112.175.156.18</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -8707,12 +7937,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>elb-p-gld-dls-an2-75892243.ap-northeast-2.elb.amazonaws.com</t>
+          <t>geniestreaming.nb-01.ktics.co.kr</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>15.165.113.97</t>
+          <t>222.122.69.134</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -8729,12 +7959,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>ec2-3-113-82-90.ap-northeast-1.compute.amazonaws.com</t>
+          <t>app.genie.co.kr</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>3.113.82.90</t>
+          <t>112.175.156.40</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -8751,12 +7981,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>112.175.156.18</t>
+          <t>dn.genie.co.kr</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>112.175.156.18</t>
+          <t>112.175.156.25</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -8773,12 +8003,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>geniestreaming.nb-01.ktics.co.kr</t>
+          <t>222.122.69.54</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>222.122.69.134</t>
+          <t>222.122.69.54</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -8795,12 +8025,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>app.genie.co.kr</t>
+          <t>stm.genie.co.kr</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>112.175.156.40</t>
+          <t>119.205.218.138</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -8817,12 +8047,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>dn.genie.co.kr</t>
+          <t>183.110.52.97</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>112.175.156.25</t>
+          <t>183.110.52.97</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -8839,12 +8069,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>events-endpoint-j-660082941.us-east-1.elb.amazonaws.com</t>
+          <t>elb-p-gld-dls-an2-75892243.ap-northeast-2.elb.amazonaws.com</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>50.17.239.114</t>
+          <t>15.165.113.97</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -8861,12 +8091,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>183.110.52.97</t>
+          <t>app.genie.co.kr</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>183.110.52.97</t>
+          <t>112.175.156.40</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -8883,12 +8113,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>app.genie.co.kr</t>
+          <t>connectivity-check.ubuntu.com</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>112.175.156.40</t>
+          <t>35.224.99.156</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -8927,12 +8157,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>connectivity-check.ubuntu.com</t>
+          <t>183.110.52.97</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>35.224.99.156</t>
+          <t>183.110.52.97</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -8971,12 +8201,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>119.205.218.215</t>
+          <t>play.googleapis.com</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>119.205.218.215</t>
+          <t>172.217.26.10</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -8993,12 +8223,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>play.googleapis.com</t>
+          <t>119.205.218.215</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>172.217.26.10</t>
+          <t>119.205.218.215</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -9015,12 +8245,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>222.122.181.223</t>
+          <t>www.google.com</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>222.122.181.223</t>
+          <t>172.217.25.100</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -9037,12 +8267,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>www.google.com</t>
+          <t>112.175.156.40</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>172.217.25.100</t>
+          <t>112.175.156.40</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -9059,12 +8289,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>112.175.156.40</t>
+          <t>183.110.52.97</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>112.175.156.40</t>
+          <t>183.110.52.97</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -9081,12 +8311,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>183.110.52.97</t>
+          <t>222.122.181.223</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>183.110.52.97</t>
+          <t>222.122.181.223</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -9339,12 +8569,12 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>tile.navi.kt.com</t>
+          <t>14.32.69.67</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>14.32.70.9</t>
+          <t>14.32.69.67</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -9361,12 +8591,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>14.32.69.67</t>
+          <t>tile.navi.kt.com</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>14.32.69.67</t>
+          <t>14.32.70.9</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -9383,12 +8613,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>events-endpoint-b-1623273513.us-east-1.elb.amazonaws.com</t>
+          <t>play.googleapis.com</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>174.129.15.221</t>
+          <t>172.217.25.234</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -9405,12 +8635,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>play.googleapis.com</t>
+          <t>events-endpoint-b-1623273513.us-east-1.elb.amazonaws.com</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>172.217.25.234</t>
+          <t>174.129.15.221</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -9427,12 +8657,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>session.navi.kt.com</t>
+          <t>freesam.kt.com</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>14.32.69.67</t>
+          <t>14.32.69.19</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -9537,12 +8767,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>freesam.kt.com</t>
+          <t>session.navi.kt.com</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>14.32.69.19</t>
+          <t>14.32.69.67</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -9669,12 +8899,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>giswalk.navi.kt.com</t>
+          <t>14.32.69.67</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>14.32.69.34</t>
+          <t>14.32.69.67</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -9691,12 +8921,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>14.32.69.67</t>
+          <t>giswalk.navi.kt.com</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>14.32.69.67</t>
+          <t>14.32.69.34</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -9735,12 +8965,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>125.159.60.119</t>
+          <t>220.75.131.122</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>125.159.60.119</t>
+          <t>220.75.131.122</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -9757,12 +8987,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>125.159.60.120</t>
+          <t>125.159.60.119</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>125.159.60.120</t>
+          <t>125.159.60.119</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -9779,12 +9009,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>220.75.131.122</t>
+          <t>125.159.60.120</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>220.75.131.122</t>
+          <t>125.159.60.120</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
